--- a/eCAMI/geneLength.xlsx
+++ b/eCAMI/geneLength.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/CRDS_Calcs/eCAMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="8_{5A19072C-1732-4B80-9ADC-896ECCD0AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04C2DC37-F66F-4BE5-A334-CDF0779A1210}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="8_{5A19072C-1732-4B80-9ADC-896ECCD0AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AF8104-8E5F-4E1B-A6F3-452D4D8A34A6}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F070A05-6435-473C-977E-A507BB2999BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F070A05-6435-473C-977E-A507BB2999BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,13 +498,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38943CD2-FB0F-485D-A069-8CD56FC1C723}">
   <dimension ref="A1:G346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189:D346"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
